--- a/biology/Neurosciences/Gyrus_rectus/Gyrus_rectus.xlsx
+++ b/biology/Neurosciences/Gyrus_rectus/Gyrus_rectus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gyrus rectus est un gyrus du lobe frontal du cortex cérébral. Il est situé sur la face inférieure des hémisphères. Il est situé entre le bord médial de la face inférieure et le sillon olfactif (dans lequel se trouve la bandelette olfactive).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
